--- a/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Андерсон-Дарлинг_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Андерсон-Дарлинг_result.xlsx
@@ -536,7 +536,7 @@
         <v>0.3095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.586</v>
+        <v>0.5861</v>
       </c>
     </row>
     <row r="8">
